--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1767856.720391549</v>
+        <v>1765969.138875147</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>181.4026671221469</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.3397726353228</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>201.330287938294</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>32.94454038126188</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>148.5491842911101</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>22.11041309544154</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>167.5990957313722</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>62.83647259524243</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.48693097153571</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1768,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>161.2173728122518</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>115.5269768002172</v>
+        <v>101.2898147863547</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>145.3140357364307</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>146.2787299119462</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>93.70991968893283</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.3327002607884</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,22 +2950,22 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965523</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801204</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437412</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>43.21861285489339</v>
       </c>
       <c r="H31" t="n">
-        <v>93.710571738979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>25.08199534321017</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373635</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
         <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2088.375092014473</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
-        <v>1719.412575074062</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1361.146876467311</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>975.3586238690671</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>564.3727190794596</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2478.514423990285</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>2088.375092014473</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>178.5286107449329</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>336.2769833124028</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>336.2769833124028</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1372.955922978507</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="C5" t="n">
-        <v>1372.955922978507</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>1014.690224371757</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>628.9019717735125</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>217.916066983905</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>203.9926629224959</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>203.9926629224959</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.555763042629</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1759.555763042629</v>
+        <v>1583.378275356799</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>529.4200491697815</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U7" t="n">
-        <v>529.4200491697815</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>76.27673242182055</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>76.27673242182055</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2457.500418892754</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2457.500418892754</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2126.437531549183</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1773.668876279069</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>598.044640063212</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5024,22 +5024,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514079</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.9089152986054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617345001</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617345001</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>920.3704617345001</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.0926555785014</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0926555785014</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9760161661657</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>260.0629225837725</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0629225837725</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765188</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>786.0822064765188</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>786.0822064765188</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X16" t="n">
-        <v>558.0926555785014</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y16" t="n">
-        <v>558.0926555785014</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201012</v>
+        <v>199.5300356889271</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U19" t="n">
-        <v>986.002216560966</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550791</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181185</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201012</v>
+        <v>420.3226148324572</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201012</v>
+        <v>199.5300356889271</v>
       </c>
     </row>
     <row r="20">
@@ -5729,46 +5729,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5917,13 +5917,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V22" t="n">
-        <v>863.0857674077897</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W22" t="n">
-        <v>573.668597370829</v>
+        <v>241.9805482336713</v>
       </c>
       <c r="X22" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>573.668597370829</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823776</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514073</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211722</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>966.693239001134</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665167</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>1966.019627967826</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2486.320249703574</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>862.1113288466634</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706315</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W25" t="n">
-        <v>436.7412337363558</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>208.7516828383385</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6209,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207829</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>583.2726413366784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>414.3364584087714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>264.2198189964357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>264.2198189964357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>264.2198189964357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347409</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347409</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>985.713685310448</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>985.713685310448</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>764.921106166918</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>469.5113192794984</v>
+        <v>439.5324299542189</v>
       </c>
       <c r="C31" t="n">
-        <v>469.5113192794984</v>
+        <v>326.3571123076827</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1555451485335</v>
+        <v>232.0013381767178</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475113</v>
+        <v>232.0013381767178</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309717</v>
+        <v>140.8722559601782</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1910.79071422455</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1766.631569421473</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1598.607019492349</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1365.239245987279</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1166.315623062763</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>932.659318307173</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>760.4306326905265</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>595.3989188283672</v>
+        <v>565.4200295030877</v>
       </c>
     </row>
     <row r="32">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,7 +6859,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6901,7 +6901,7 @@
         <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010309</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,34 +6953,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,46 +7163,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7217,7 +7217,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636248</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504517</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7555,10 +7555,10 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.848946864969</v>
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>433.751552729297</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,22 +9249,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>199.6230805871088</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.88923345256674</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>85.30006332127823</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10203,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>189.0022427662466</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>38.86002301949912</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>62.794659289832</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>295.3773510571274</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,16 +11385,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.34504921040158</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>5.276195651125763</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23713,13 +23713,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>48.84084321165253</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>51.71984429841068</v>
+        <v>65.95700631227315</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>106.8236075873973</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>75.26883114644303</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>192.8130786476582</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>1.160868202589171</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>68.07169897992713</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.6791004320255</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901202.1983061398</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>936736.6229231529</v>
+        <v>936736.6229231528</v>
       </c>
     </row>
     <row r="12">
@@ -26314,10 +26314,10 @@
         <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651774</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721358</v>
@@ -26329,10 +26329,10 @@
         <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
@@ -26344,7 +26344,7 @@
         <v>513151.1061651764</v>
       </c>
       <c r="M2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651766</v>
       </c>
       <c r="N2" t="n">
         <v>513151.1061651764</v>
@@ -26353,7 +26353,7 @@
         <v>513151.1061651765</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651764</v>
+        <v>513151.1061651765</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.256805717275711e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26430,7 +26430,7 @@
         <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,25 +26439,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106725</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819123</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819126</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,31 +26482,31 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26522,46 +26522,46 @@
         <v>-325308.7188993016</v>
       </c>
       <c r="C6" t="n">
+        <v>264659.1603152429</v>
+      </c>
+      <c r="D6" t="n">
         <v>264659.1603152435</v>
       </c>
-      <c r="D6" t="n">
-        <v>264659.1603152434</v>
-      </c>
       <c r="E6" t="n">
-        <v>-150535.6453403477</v>
+        <v>-150633.1044663197</v>
       </c>
       <c r="F6" t="n">
-        <v>374624.3911365486</v>
+        <v>374526.9320105763</v>
       </c>
       <c r="G6" t="n">
-        <v>374624.3911365486</v>
+        <v>374526.9320105763</v>
       </c>
       <c r="H6" t="n">
-        <v>374624.3911365485</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="I6" t="n">
-        <v>374624.3911365484</v>
+        <v>374526.9320105763</v>
       </c>
       <c r="J6" t="n">
-        <v>198201.1719439556</v>
+        <v>198103.7128179834</v>
       </c>
       <c r="K6" t="n">
-        <v>327397.627747452</v>
+        <v>327379.1340095178</v>
       </c>
       <c r="L6" t="n">
         <v>360499.698716093</v>
       </c>
       <c r="M6" t="n">
-        <v>236041.5902831228</v>
+        <v>236041.5902831229</v>
       </c>
       <c r="N6" t="n">
-        <v>370842.6055169597</v>
+        <v>370842.6055169598</v>
       </c>
       <c r="O6" t="n">
         <v>370842.6055169599</v>
       </c>
       <c r="P6" t="n">
-        <v>326680.0002141141</v>
+        <v>326680.0002141142</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26750,16 +26750,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>232.3815028986481</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>11.62584915701547</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>17.25436541380077</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.7893012822187</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.382131953751156</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>157.7215670864958</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>57.43600972671211</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>153.6118477624154</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>136.7057146380968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.36203824822869</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
@@ -35507,7 +35507,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,22 +35732,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>744.1759297797634</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>510.0474576375751</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>127.9022662376409</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36531,10 +36531,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>367.6637655623863</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,13 +36923,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>471.3659450073548</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686865</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>321.2237252606072</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37321,7 +37321,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>373.2190363402982</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303323</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>628.5719244551402</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>682.9598737318699</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,16 +38105,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>352.3285462419043</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
